--- a/EVIDENCIA 3.xlsx
+++ b/EVIDENCIA 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88959942-CDCC-4104-9532-4599EB7C0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE0D98-938B-49B9-8DC8-44DF39C11C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3ED94BB7-7C45-4DC0-9136-A45E4CDA4799}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Crea una carpeta o repositorio compartido mediante el cual tendré acceso a tu proyecto.</t>
   </si>
   <si>
-    <t>Enlace: https://github.com/gilalan83/Evidencia3BD</t>
-  </si>
-  <si>
     <t>Planteamiento Base de Datos</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Se creara un sistema que simulara el sistema de un eccomerce para añadir prodcutos y mostrarlos</t>
+  </si>
+  <si>
+    <t>Enlace: https://github.com/Dusbchek/Evidencia3</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0FC5A-5245-40DA-9D3F-023E372114BD}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,137 +851,137 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,10 +990,10 @@
     </row>
     <row r="26" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
